--- a/test_0402.xlsx
+++ b/test_0402.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\star8\desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797996DF-9D69-4B20-98AE-172B469191A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D959ACE6-F948-4369-835C-9BDF1D9E9E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{14759D99-9448-411D-9BF0-B8932DEE0368}"/>
+    <workbookView xWindow="792" yWindow="0" windowWidth="17268" windowHeight="8880" xr2:uid="{14759D99-9448-411D-9BF0-B8932DEE0368}"/>
   </bookViews>
   <sheets>
-    <sheet name="5871" sheetId="4" r:id="rId1"/>
-    <sheet name="2412" sheetId="3" r:id="rId2"/>
-    <sheet name="2303" sheetId="2" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="5871_new" sheetId="5" r:id="rId1"/>
+    <sheet name="5871" sheetId="4" r:id="rId2"/>
+    <sheet name="2412" sheetId="3" r:id="rId3"/>
+    <sheet name="2303" sheetId="2" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="256">
   <si>
     <t>GRI_Standard</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,104 +811,124 @@
     <t>419-1</t>
   </si>
   <si>
+    <t>102-15</t>
+  </si>
+  <si>
+    <t>102-17</t>
+  </si>
+  <si>
+    <t>102-19</t>
+  </si>
+  <si>
+    <t>102-20</t>
+  </si>
+  <si>
+    <t>102-21</t>
+  </si>
+  <si>
+    <t>102-22</t>
+  </si>
+  <si>
+    <t>102-25</t>
+  </si>
+  <si>
+    <t>102-26</t>
+  </si>
+  <si>
+    <t>102-27</t>
+  </si>
+  <si>
+    <t>102-28</t>
+  </si>
+  <si>
+    <t>102-29</t>
+  </si>
+  <si>
+    <t>102-32</t>
+  </si>
+  <si>
+    <t>102-33</t>
+  </si>
+  <si>
+    <t>102-34</t>
+  </si>
+  <si>
+    <t>102-36</t>
+  </si>
+  <si>
+    <t>201-4</t>
+  </si>
+  <si>
+    <t>203-1</t>
+  </si>
+  <si>
+    <t>204-1</t>
+  </si>
+  <si>
+    <t>205-1</t>
+  </si>
+  <si>
+    <t>207-1</t>
+  </si>
+  <si>
+    <t>207-4</t>
+  </si>
+  <si>
+    <t>303-1</t>
+  </si>
+  <si>
+    <t>306-1</t>
+  </si>
+  <si>
+    <t>306-2</t>
+  </si>
+  <si>
+    <t>306-3</t>
+  </si>
+  <si>
+    <t>404-1</t>
+  </si>
+  <si>
+    <t>404-3</t>
+  </si>
+  <si>
+    <t>406-1</t>
+  </si>
+  <si>
+    <t>407-1</t>
+  </si>
+  <si>
+    <t>408-1</t>
+  </si>
+  <si>
+    <t>409-1</t>
+  </si>
+  <si>
+    <t>411-1</t>
+  </si>
+  <si>
+    <t>412-2</t>
+  </si>
+  <si>
+    <t>413-2</t>
+  </si>
+  <si>
+    <t>417-1</t>
+  </si>
+  <si>
+    <t>303-3</t>
+  </si>
+  <si>
     <t>18,62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>207-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>207-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>405-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>405-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>406-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>407-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>408-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>409-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>411-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>412-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>413-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>414-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>415-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>416-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>417-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>418-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>419-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,34</t>
+  </si>
+  <si>
+    <t>79,83</t>
+  </si>
+  <si>
+    <t>62,65</t>
   </si>
 </sst>
 </file>
@@ -917,7 +938,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -941,13 +962,33 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -964,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,6 +1019,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1293,803 +1343,1805 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E07335-D028-4561-9092-06B093938954}">
-  <dimension ref="A1:B104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DAACD6-CB72-438C-87A4-785C6B7F7C9E}">
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="B5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="B7">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="B9">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="B10">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="B12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="B14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="B17">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="B18">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B19">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="B20">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="B21">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="B22">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="B23">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="B24">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="B25">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="B26">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="B27">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30">
         <v>34</v>
       </c>
-      <c r="B28">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="B31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="B32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B33">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="B36">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="B37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38">
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40">
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>238</v>
+      </c>
+      <c r="B71">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>239</v>
+      </c>
+      <c r="B72">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>191</v>
+      </c>
+      <c r="B84">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>241</v>
+      </c>
+      <c r="B96">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>242</v>
+      </c>
+      <c r="B97">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>243</v>
+      </c>
+      <c r="B100">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>248</v>
+      </c>
+      <c r="B105">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E07335-D028-4561-9092-06B093938954}">
+  <dimension ref="A1:B120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="B49">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50">
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>217</v>
-      </c>
-      <c r="B50">
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>218</v>
-      </c>
-      <c r="B51">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="B52">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B53">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55">
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56">
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57">
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>220</v>
-      </c>
-      <c r="B57">
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58">
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59">
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="B60">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="B61">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="B62">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B63">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="B64">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65">
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="B67">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B68">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B69">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="B70">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="B71">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="B72">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="B74">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75">
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>109</v>
-      </c>
-      <c r="B76">
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>110</v>
-      </c>
-      <c r="B77">
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>223</v>
-      </c>
-      <c r="B78">
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79">
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89">
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>112</v>
-      </c>
-      <c r="B80">
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>113</v>
-      </c>
-      <c r="B81">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91">
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>115</v>
-      </c>
-      <c r="B82">
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>199</v>
+      </c>
+      <c r="B92">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>116</v>
-      </c>
-      <c r="B83">
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93">
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>117</v>
-      </c>
-      <c r="B84">
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85">
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95">
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>120</v>
-      </c>
-      <c r="B86">
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96">
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>224</v>
-      </c>
-      <c r="B87">
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97">
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>225</v>
-      </c>
-      <c r="B88">
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98">
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>226</v>
-      </c>
-      <c r="B89">
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>227</v>
-      </c>
-      <c r="B90">
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>228</v>
-      </c>
-      <c r="B91">
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101">
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>233</v>
-      </c>
-      <c r="B96">
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>235</v>
-      </c>
-      <c r="B98">
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108">
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>236</v>
-      </c>
-      <c r="B99">
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>238</v>
-      </c>
-      <c r="B101">
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>250</v>
+      </c>
+      <c r="B111">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B114" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" s="7"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="7" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>240</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>90</v>
+      <c r="B120" s="7">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +3151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505B2516-50A2-4E54-B60D-A3721003B843}">
   <dimension ref="A1:B75"/>
   <sheetViews>
@@ -2107,9 +3159,9 @@
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -2117,7 +3169,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -2125,7 +3177,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -2133,7 +3185,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -2141,12 +3193,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -2154,7 +3206,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -2162,7 +3214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -2170,7 +3222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2178,7 +3230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -2186,7 +3238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -2194,7 +3246,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -2202,7 +3254,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -2210,12 +3262,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -2223,7 +3275,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -2231,7 +3283,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -2239,7 +3291,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -2248,7 +3300,7 @@
         <v>6-7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -2256,7 +3308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -2264,7 +3316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -2272,7 +3324,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -2280,7 +3332,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -2288,7 +3340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>156</v>
       </c>
@@ -2296,7 +3348,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -2304,7 +3356,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -2312,7 +3364,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -2320,7 +3372,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -2328,32 +3380,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -2361,12 +3413,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -2374,7 +3426,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>171</v>
       </c>
@@ -2382,7 +3434,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>173</v>
       </c>
@@ -2390,7 +3442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -2398,7 +3450,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>176</v>
       </c>
@@ -2406,7 +3458,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>177</v>
       </c>
@@ -2414,7 +3466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -2422,7 +3474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -2430,7 +3482,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -2438,7 +3490,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>181</v>
       </c>
@@ -2446,7 +3498,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -2454,7 +3506,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>184</v>
       </c>
@@ -2462,7 +3514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -2470,7 +3522,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -2478,7 +3530,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>187</v>
       </c>
@@ -2486,12 +3538,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>190</v>
       </c>
@@ -2499,7 +3551,7 @@
         <v>105401</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>191</v>
       </c>
@@ -2507,7 +3559,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>192</v>
       </c>
@@ -2515,7 +3567,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>194</v>
       </c>
@@ -2523,7 +3575,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>195</v>
       </c>
@@ -2531,47 +3583,47 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>204</v>
       </c>
@@ -2579,7 +3631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>205</v>
       </c>
@@ -2587,7 +3639,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>206</v>
       </c>
@@ -2595,7 +3647,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>208</v>
       </c>
@@ -2603,7 +3655,7 @@
         <v>62414</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -2611,12 +3663,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -2624,13 +3676,13 @@
         <v>417</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>212</v>
       </c>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>213</v>
       </c>
@@ -2638,7 +3690,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>214</v>
       </c>
@@ -2646,7 +3698,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>215</v>
       </c>
@@ -2660,7 +3712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B926D94-264F-415C-9962-FB65A5139E3E}">
   <dimension ref="A1:B105"/>
   <sheetViews>
@@ -2668,12 +3720,12 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2689,7 +3741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2697,7 +3749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2705,7 +3757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2713,7 +3765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2721,7 +3773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2729,7 +3781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2737,7 +3789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2745,7 +3797,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2753,7 +3805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2761,7 +3813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2769,7 +3821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2777,7 +3829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2785,7 +3837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2793,7 +3845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2801,17 +3853,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2819,7 +3871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2827,7 +3879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2835,7 +3887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2843,7 +3895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2851,7 +3903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2859,7 +3911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2867,7 +3919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2875,7 +3927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2883,7 +3935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2891,7 +3943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2899,7 +3951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2907,7 +3959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2915,7 +3967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2923,7 +3975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2931,7 +3983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2939,7 +3991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2947,7 +3999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2955,7 +4007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2963,7 +4015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2971,7 +4023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2979,7 +4031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2987,7 +4039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2995,7 +4047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3003,7 +4055,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -3011,7 +4063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -3019,7 +4071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -3027,7 +4079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3035,7 +4087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3043,7 +4095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3051,12 +4103,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -3064,7 +4116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3072,7 +4124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3080,7 +4132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3088,7 +4140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3096,7 +4148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3104,7 +4156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -3112,7 +4164,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -3120,7 +4172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -3128,7 +4180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -3136,7 +4188,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3144,7 +4196,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -3152,7 +4204,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -3160,7 +4212,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -3168,7 +4220,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -3176,7 +4228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -3184,7 +4236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -3192,7 +4244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -3200,7 +4252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -3208,7 +4260,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -3216,7 +4268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -3224,7 +4276,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -3232,7 +4284,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -3240,7 +4292,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -3248,7 +4300,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -3256,7 +4308,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -3264,7 +4316,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -3272,7 +4324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -3280,7 +4332,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -3288,7 +4340,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -3296,7 +4348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -3304,7 +4356,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -3312,7 +4364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -3320,12 +4372,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -3333,32 +4385,32 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -3366,7 +4418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -3374,7 +4426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -3382,7 +4434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -3390,7 +4442,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -3398,7 +4450,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -3406,7 +4458,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -3414,7 +4466,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -3422,7 +4474,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -3430,7 +4482,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -3438,7 +4490,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -3446,7 +4498,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -3454,7 +4506,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -3462,7 +4514,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -3470,7 +4522,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -3478,7 +4530,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -3492,13 +4544,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E846A12-B827-47B1-BCFF-887775FF5F57}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_0402.xlsx
+++ b/test_0402.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\star8\desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D959ACE6-F948-4369-835C-9BDF1D9E9E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A81D95D-7071-4F4C-B32C-DDE869BD8BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="0" windowWidth="17268" windowHeight="8880" xr2:uid="{14759D99-9448-411D-9BF0-B8932DEE0368}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14759D99-9448-411D-9BF0-B8932DEE0368}"/>
   </bookViews>
   <sheets>
     <sheet name="5871_new" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="253">
   <si>
     <t>GRI_Standard</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -920,15 +920,6 @@
   </si>
   <si>
     <t>18,62</t>
-  </si>
-  <si>
-    <t>34,34</t>
-  </si>
-  <si>
-    <t>79,83</t>
-  </si>
-  <si>
-    <t>62,65</t>
   </si>
 </sst>
 </file>
@@ -1344,872 +1335,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DAACD6-CB72-438C-87A4-785C6B7F7C9E}">
-  <dimension ref="A1:B113"/>
+  <dimension ref="B49:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B21">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B22">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>226</v>
-      </c>
-      <c r="B29">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>229</v>
-      </c>
-      <c r="B32">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B33">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>160</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>168</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B49" s="1">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>171</v>
-      </c>
-      <c r="B50" s="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="1">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="1">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>173</v>
-      </c>
-      <c r="B54">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>231</v>
-      </c>
-      <c r="B56">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>232</v>
-      </c>
-      <c r="B58" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>233</v>
-      </c>
-      <c r="B59">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>234</v>
-      </c>
-      <c r="B60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>235</v>
-      </c>
-      <c r="B63">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>236</v>
-      </c>
-      <c r="B64">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>237</v>
-      </c>
-      <c r="B67">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>184</v>
-      </c>
-      <c r="B68">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>185</v>
-      </c>
-      <c r="B69">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>186</v>
-      </c>
-      <c r="B70">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>238</v>
-      </c>
-      <c r="B71">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>239</v>
-      </c>
-      <c r="B72">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>183</v>
-      </c>
-      <c r="B75" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>237</v>
-      </c>
-      <c r="B76" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B77" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B78" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B79" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>238</v>
-      </c>
-      <c r="B80" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>239</v>
-      </c>
-      <c r="B81" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>190</v>
-      </c>
-      <c r="B83">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>191</v>
-      </c>
-      <c r="B84">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>192</v>
-      </c>
-      <c r="B85">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>194</v>
-      </c>
-      <c r="B86">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>195</v>
-      </c>
-      <c r="B87">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>196</v>
-      </c>
-      <c r="B88">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>197</v>
-      </c>
-      <c r="B89">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>198</v>
-      </c>
-      <c r="B90">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>199</v>
-      </c>
-      <c r="B91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>200</v>
-      </c>
-      <c r="B92">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>201</v>
-      </c>
-      <c r="B93">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>202</v>
-      </c>
-      <c r="B94">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>204</v>
-      </c>
-      <c r="B95">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>241</v>
-      </c>
-      <c r="B96">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>242</v>
-      </c>
-      <c r="B97">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>206</v>
-      </c>
-      <c r="B98">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>208</v>
-      </c>
-      <c r="B99">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>243</v>
-      </c>
-      <c r="B100">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>248</v>
-      </c>
-      <c r="B105">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>209</v>
-      </c>
-      <c r="B107">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>210</v>
-      </c>
-      <c r="B108">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>250</v>
-      </c>
-      <c r="B110">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>251</v>
-      </c>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
